--- a/data/water quality.xlsx
+++ b/data/water quality.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\PYTHON_CODE\Hydro-Met network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\PYTHON_CODE\Hydro-Met network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C00ABF-F0D7-4B10-8EA7-F56F864A40AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140A475-890E-405B-9E52-AD598BC177C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,9 +634,6 @@
     <t>Đồng Nai: Quyết Thắng_WB2 (NM)</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Lon</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/data/water quality.xlsx
+++ b/data/water quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\PYTHON_CODE\Hydro-Met network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140A475-890E-405B-9E52-AD598BC177C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B533509-C7D4-47F9-9C30-E555B9B977FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -634,19 +634,19 @@
     <t>Đồng Nai: Quyết Thắng_WB2 (NM)</t>
   </si>
   <si>
-    <t>Lon</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Station</t>
+    <t>STATIONS</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>LAT</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>205</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
